--- a/영화DB/FEELING_DATA_TABLE.xlsx
+++ b/영화DB/FEELING_DATA_TABLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joo\Desktop\다운파일\영화DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joo\jsp\movie\영화DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FEELING</t>
   </si>
@@ -41,6 +41,14 @@
   </si>
   <si>
     <t>답답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심심</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,11 +381,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -405,6 +413,16 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
